--- a/Docs/Bestellijst_FRDM-MCXx_Shield.xlsx
+++ b/Docs/Bestellijst_FRDM-MCXx_Shield.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github-repositories\FRDM_MCXx_SensHat\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F832C3-83ED-4AE4-A5C6-C94758E5ABC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53417BCE-FFC9-4B74-B216-84532A03F782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{73606AE1-FCDB-4463-857B-E397C2A1DD7B}"/>
   </bookViews>
@@ -299,13 +299,13 @@
     <t>https://nl.mouser.com/ProductDetail/Cree-LED/CLV1L-FKB-CJ1N1E1BB7B3B3?qs=DCjbIwhU0ZsUXXwML8ijbw%3D%3D</t>
   </si>
   <si>
-    <t>total:</t>
-  </si>
-  <si>
     <t>Total amount:</t>
   </si>
   <si>
     <t>10uF</t>
+  </si>
+  <si>
+    <t>Total:</t>
   </si>
 </sst>
 </file>
@@ -313,7 +313,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -370,7 +370,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -381,21 +381,21 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.00"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="167" formatCode="&quot;€&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -421,15 +421,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A44F3A0-B729-406C-9EC4-0378BD73E1FB}" name="Table2" displayName="Table2" ref="A1:F26" totalsRowShown="0" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1A44F3A0-B729-406C-9EC4-0378BD73E1FB}" name="Table2" displayName="Table2" ref="A1:F26" totalsRowShown="0" dataDxfId="7">
   <autoFilter ref="A1:F26" xr:uid="{1A44F3A0-B729-406C-9EC4-0378BD73E1FB}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{40FDC98D-4597-4516-8075-7DB8B5B16B60}" name="Type: "/>
     <tableColumn id="2" xr3:uid="{E364DB80-3F9E-426A-8D8A-9511B38F8C26}" name="Reference:"/>
-    <tableColumn id="3" xr3:uid="{0BD1AFBE-E36C-4E3A-BB6C-FA509880BD4D}" name="Value:" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{0BD1AFBE-E36C-4E3A-BB6C-FA509880BD4D}" name="Value:" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{B9FE586B-2FA3-4BDB-AE86-26E63E6C3EC1}" name="Package:" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E8588274-7FCF-4ED5-A4DB-8582E2A0278C}" name="Price pp:" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{F98FB604-9045-4F81-AD23-E46FEA608BD7}" name="Quantity:" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E8588274-7FCF-4ED5-A4DB-8582E2A0278C}" name="Price pp:" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{F98FB604-9045-4F81-AD23-E46FEA608BD7}" name="Quantity:" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -440,10 +440,10 @@
   <autoFilter ref="H1:K26" xr:uid="{373B21FC-0EEB-4F8D-B354-9E1C7EEDA521}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{E190DF5B-A60F-4828-9B71-0B0658849624}" name="PCBs:" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{8EFE6822-B461-468C-8842-1CD78C2B43E5}" name="Total amount:" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{8EFE6822-B461-468C-8842-1CD78C2B43E5}" name="Total amount:" dataDxfId="1">
       <calculatedColumnFormula>Table3[[#This Row],[PCBs:]]*Table2[[#This Row],[Quantity:]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{632C5118-5BCF-4708-A654-5E36D2D9F8CD}" name="Price total:" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{632C5118-5BCF-4708-A654-5E36D2D9F8CD}" name="Price total:" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{F3D23841-B4C1-478A-946B-890E8577F60B}" name="Link:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -770,7 +770,7 @@
   <dimension ref="A1:K35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -809,7 +809,7 @@
         <v>60</v>
       </c>
       <c r="I1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J1" t="s">
         <v>63</v>
@@ -894,7 +894,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>8</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="2"/>
